--- a/Combined_datasets/Sampleset/prepared_for_language_model/Library_Management_Dataset_1_input_prep.xlsx
+++ b/Combined_datasets/Sampleset/prepared_for_language_model/Library_Management_Dataset_1_input_prep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/Combined_datasets/Sampleset/prepared_for_language_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154CCABA-05C1-9B4F-96AE-FF4C026B2F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718ADADC-5B57-BA48-A162-DBD84A832CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="500" windowWidth="28400" windowHeight="16380" xr2:uid="{CD64CC7F-A379-814B-9D9A-13DE07272CB1}"/>
+    <workbookView xWindow="2700" yWindow="1980" windowWidth="28400" windowHeight="16380" xr2:uid="{CD64CC7F-A379-814B-9D9A-13DE07272CB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -734,7 +734,7 @@
   <dimension ref="A1:A103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Combined_datasets/Sampleset/prepared_for_language_model/Library_Management_Dataset_1_input_prep.xlsx
+++ b/Combined_datasets/Sampleset/prepared_for_language_model/Library_Management_Dataset_1_input_prep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/Combined_datasets/Sampleset/prepared_for_language_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718ADADC-5B57-BA48-A162-DBD84A832CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4844F167-3437-DD45-A4C4-482C54FE6965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1980" windowWidth="28400" windowHeight="16380" xr2:uid="{CD64CC7F-A379-814B-9D9A-13DE07272CB1}"/>
+    <workbookView xWindow="4380" yWindow="920" windowWidth="28400" windowHeight="16380" xr2:uid="{CD64CC7F-A379-814B-9D9A-13DE07272CB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Combined_datasets/Sampleset/prepared_for_language_model/Library_Management_Dataset_1_input_prep.xlsx
+++ b/Combined_datasets/Sampleset/prepared_for_language_model/Library_Management_Dataset_1_input_prep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/Combined_datasets/Sampleset/prepared_for_language_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4844F167-3437-DD45-A4C4-482C54FE6965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B62C34-55C5-C642-8407-74C80CEF3F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="920" windowWidth="28400" windowHeight="16380" xr2:uid="{CD64CC7F-A379-814B-9D9A-13DE07272CB1}"/>
+    <workbookView xWindow="400" yWindow="500" windowWidth="28400" windowHeight="16380" xr2:uid="{CD64CC7F-A379-814B-9D9A-13DE07272CB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -734,7 +734,7 @@
   <dimension ref="A1:A103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A103"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
